--- a/fuentes/contenidos/grado09/guion02/SolicitudGrafica_LE_09_02_REC260.xlsx
+++ b/fuentes/contenidos/grado09/guion02/SolicitudGrafica_LE_09_02_REC260.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
@@ -16,7 +16,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateCount="2" iterateDelta="10" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -639,7 +639,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -800,8 +800,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,8 +855,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1294,8 +1306,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1347,8 +1374,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1669,8 +1727,30 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="24" fillId="9" borderId="36" xfId="51" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="9" borderId="36" xfId="51" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="9" borderId="36" xfId="51" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="36" xfId="51" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="36" xfId="51" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="36" xfId="51" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="82">
+    <cellStyle name="Entrada" xfId="51" builtinId="20"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1696,6 +1776,21 @@
     <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1721,6 +1816,21 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2409,7 +2519,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2431,7 +2541,7 @@
     <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2450,7 +2560,7 @@
         <v>Ubicación de la imagen en el recurso F6B</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>121</v>
@@ -2481,7 +2591,7 @@
         <v>M3A</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2512,7 +2622,7 @@
         <v>M5A</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -2544,7 +2654,7 @@
         <v>M6A</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1">
+    <row r="5" spans="1:16" ht="16" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2577,7 +2687,7 @@
         <v>M7A</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1">
+    <row r="6" spans="1:16" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2630,7 +2740,7 @@
         <v>M9B</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.25" thickBot="1">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2698,129 +2808,129 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="12" t="str">
+      <c r="A10" s="109" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="110" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="20" t="str">
+      <c r="C10" s="111" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6B</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="13" t="str">
+      <c r="F10" s="113" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_09_02_REC260_IMG01n.jpg</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="113" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>320 x 480 px</v>
       </c>
-      <c r="H10" s="13" t="str">
+      <c r="H10" s="113" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>LE_09_02_REC260_IMG01a.jpg</v>
       </c>
-      <c r="I10" s="13" t="str">
+      <c r="I10" s="113" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="K10" s="64"/>
+      <c r="K10" s="114"/>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="11" customFormat="1" ht="14" customHeight="1">
-      <c r="A11" s="12" t="str">
+      <c r="A11" s="109" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="20" t="str">
+      <c r="C11" s="111" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6B</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="13" t="str">
+      <c r="F11" s="113" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_09_02_REC260_IMG02n.jpg</v>
       </c>
-      <c r="G11" s="13" t="str">
+      <c r="G11" s="113" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>320 x 480 px</v>
       </c>
-      <c r="H11" s="13" t="str">
+      <c r="H11" s="113" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>LE_09_02_REC260_IMG02a.jpg</v>
       </c>
-      <c r="I11" s="13" t="str">
+      <c r="I11" s="113" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="K11" s="65"/>
+      <c r="K11" s="114"/>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1">
-      <c r="A12" s="12" t="str">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="15">
+      <c r="A12" s="109" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="20" t="str">
+      <c r="C12" s="111" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6B</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="13" t="str">
+      <c r="F12" s="113" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>LE_09_02_REC260_IMG03n.jpg</v>
       </c>
-      <c r="G12" s="13" t="str">
+      <c r="G12" s="113" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>320 x 480 px</v>
       </c>
-      <c r="H12" s="13" t="str">
+      <c r="H12" s="113" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>LE_09_02_REC260_IMG03a.jpg</v>
       </c>
-      <c r="I12" s="13" t="str">
+      <c r="I12" s="113" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="K12" s="64"/>
+      <c r="K12" s="114"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
@@ -2871,7 +2981,7 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="15">
+    <row r="14" spans="1:16" s="11" customFormat="1">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2906,7 +3016,7 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="15">
+    <row r="15" spans="1:16" s="11" customFormat="1">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2941,7 +3051,7 @@
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="15">
+    <row r="16" spans="1:16" s="11" customFormat="1">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2976,7 +3086,7 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="17" spans="1:15" s="11" customFormat="1">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3011,7 +3121,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="18" spans="1:15" s="11" customFormat="1">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3046,7 +3156,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="19" spans="1:15" s="11" customFormat="1">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v/>
@@ -3081,7 +3191,7 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="20" spans="1:15" s="11" customFormat="1">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3116,7 +3226,7 @@
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="21" spans="1:15" s="11" customFormat="1">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3151,7 +3261,7 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="22" spans="1:15" s="11" customFormat="1">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3186,7 +3296,7 @@
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="23" spans="1:15" s="11" customFormat="1">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3221,7 +3331,7 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="24" spans="1:15" s="11" customFormat="1">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3256,7 +3366,7 @@
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="25" spans="1:15" s="11" customFormat="1">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3287,7 +3397,7 @@
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="26" spans="1:15" s="11" customFormat="1">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3318,7 +3428,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="27" spans="1:15" s="11" customFormat="1">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3350,7 +3460,7 @@
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="28" spans="1:15" s="11" customFormat="1">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3381,7 +3491,7 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="29" spans="1:15" s="11" customFormat="1">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3412,7 +3522,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="30" spans="1:15" s="11" customFormat="1">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3443,7 +3553,7 @@
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="31" spans="1:15" s="11" customFormat="1">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3474,7 +3584,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="32" spans="1:15" s="11" customFormat="1">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3505,7 +3615,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="33" spans="1:15" s="11" customFormat="1">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3536,7 +3646,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="34" spans="1:15" s="11" customFormat="1">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3568,7 +3678,7 @@
       <c r="K34" s="64"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="35" spans="1:15" s="11" customFormat="1">
       <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3600,7 +3710,7 @@
       <c r="K35" s="65"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="36" spans="1:15" s="11" customFormat="1">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3632,7 +3742,7 @@
       <c r="K36" s="65"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="37" spans="1:15" s="11" customFormat="1">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3663,7 +3773,7 @@
       <c r="J37" s="70"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="38" spans="1:15" s="11" customFormat="1">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3694,7 +3804,7 @@
       <c r="J38" s="71"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="39" spans="1:15" s="11" customFormat="1">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3725,7 +3835,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="40" spans="1:15" s="11" customFormat="1">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3756,7 +3866,7 @@
       <c r="J40" s="63"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="41" spans="1:15" s="11" customFormat="1">
       <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3787,7 +3897,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="42" spans="1:15" s="11" customFormat="1">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3818,7 +3928,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="43" spans="1:15" s="11" customFormat="1">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3849,7 +3959,7 @@
       <c r="J43" s="63"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="44" spans="1:15" s="11" customFormat="1">
       <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3880,7 +3990,7 @@
       <c r="J44" s="63"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="45" spans="1:15" s="11" customFormat="1">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3911,7 +4021,7 @@
       <c r="J45" s="63"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="46" spans="1:15" s="11" customFormat="1">
       <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3942,7 +4052,7 @@
       <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="47" spans="1:15" s="11" customFormat="1">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3973,7 +4083,7 @@
       <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="48" spans="1:15" s="11" customFormat="1">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4004,7 +4114,7 @@
       <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="49" spans="1:11" s="11" customFormat="1">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4035,7 +4145,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="50" spans="1:11" s="11" customFormat="1">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4066,7 +4176,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="51" spans="1:11" s="11" customFormat="1">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
@@ -4097,7 +4207,7 @@
       <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="52" spans="1:11" s="11" customFormat="1">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4128,7 +4238,7 @@
       <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="53" spans="1:11" s="11" customFormat="1">
       <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4159,7 +4269,7 @@
       <c r="J53" s="63"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="54" spans="1:11" s="11" customFormat="1">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4190,7 +4300,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="55" spans="1:11" s="11" customFormat="1">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4221,7 +4331,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="56" spans="1:11" s="11" customFormat="1">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4252,7 +4362,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="57" spans="1:11" s="11" customFormat="1">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4283,7 +4393,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="58" spans="1:11" s="11" customFormat="1">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4314,7 +4424,7 @@
       <c r="J58" s="63"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="59" spans="1:11" s="11" customFormat="1">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4345,7 +4455,7 @@
       <c r="J59" s="63"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="60" spans="1:11" s="11" customFormat="1">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4376,7 +4486,7 @@
       <c r="J60" s="63"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="61" spans="1:11" s="11" customFormat="1">
       <c r="A61" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4407,7 +4517,7 @@
       <c r="J61" s="63"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="62" spans="1:11" s="11" customFormat="1">
       <c r="A62" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4438,7 +4548,7 @@
       <c r="J62" s="63"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="63" spans="1:11" s="11" customFormat="1">
       <c r="A63" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4469,7 +4579,7 @@
       <c r="J63" s="63"/>
       <c r="K63" s="65"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="64" spans="1:11" s="11" customFormat="1">
       <c r="A64" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4500,7 +4610,7 @@
       <c r="J64" s="63"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="65" spans="1:11" s="11" customFormat="1">
       <c r="A65" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4531,7 +4641,7 @@
       <c r="J65" s="63"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="66" spans="1:11" s="11" customFormat="1">
       <c r="A66" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4562,7 +4672,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="67" spans="1:11" s="11" customFormat="1">
       <c r="A67" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4593,7 +4703,7 @@
       <c r="J67" s="63"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="68" spans="1:11" s="11" customFormat="1">
       <c r="A68" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4624,7 +4734,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="69" spans="1:11" s="11" customFormat="1">
       <c r="A69" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4655,7 +4765,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="70" spans="1:11" s="11" customFormat="1">
       <c r="A70" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4686,7 +4796,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="71" spans="1:11" s="11" customFormat="1">
       <c r="A71" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4717,7 +4827,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="72" spans="1:11" s="11" customFormat="1">
       <c r="A72" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4748,7 +4858,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="73" spans="1:11" s="11" customFormat="1">
       <c r="A73" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4779,7 +4889,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="74" spans="1:11" s="11" customFormat="1">
       <c r="A74" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4810,7 +4920,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="75" spans="1:11" s="11" customFormat="1">
       <c r="A75" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4841,7 +4951,7 @@
       <c r="J75" s="63"/>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="76" spans="1:11" s="11" customFormat="1">
       <c r="A76" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4872,7 +4982,7 @@
       <c r="J76" s="63"/>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="77" spans="1:11" s="11" customFormat="1">
       <c r="A77" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4903,7 +5013,7 @@
       <c r="J77" s="63"/>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="78" spans="1:11" s="11" customFormat="1">
       <c r="A78" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4934,7 +5044,7 @@
       <c r="J78" s="63"/>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="79" spans="1:11" s="11" customFormat="1">
       <c r="A79" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4965,7 +5075,7 @@
       <c r="J79" s="63"/>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="80" spans="1:11" s="11" customFormat="1">
       <c r="A80" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4996,7 +5106,7 @@
       <c r="J80" s="63"/>
       <c r="K80" s="65"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="81" spans="1:11" s="11" customFormat="1">
       <c r="A81" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5027,7 +5137,7 @@
       <c r="J81" s="63"/>
       <c r="K81" s="65"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="82" spans="1:11" s="11" customFormat="1">
       <c r="A82" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5058,7 +5168,7 @@
       <c r="J82" s="63"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="83" spans="1:11" s="11" customFormat="1">
       <c r="A83" s="12" t="str">
         <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
@@ -5089,7 +5199,7 @@
       <c r="J83" s="63"/>
       <c r="K83" s="65"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="84" spans="1:11" s="11" customFormat="1">
       <c r="A84" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5120,7 +5230,7 @@
       <c r="J84" s="63"/>
       <c r="K84" s="65"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="85" spans="1:11" s="11" customFormat="1">
       <c r="A85" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5151,7 +5261,7 @@
       <c r="J85" s="63"/>
       <c r="K85" s="65"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="86" spans="1:11" s="11" customFormat="1">
       <c r="A86" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5182,7 +5292,7 @@
       <c r="J86" s="63"/>
       <c r="K86" s="65"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="87" spans="1:11" s="11" customFormat="1">
       <c r="A87" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5213,7 +5323,7 @@
       <c r="J87" s="63"/>
       <c r="K87" s="65"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="88" spans="1:11" s="11" customFormat="1">
       <c r="A88" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5244,7 +5354,7 @@
       <c r="J88" s="63"/>
       <c r="K88" s="65"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="89" spans="1:11" s="11" customFormat="1">
       <c r="A89" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5275,7 +5385,7 @@
       <c r="J89" s="63"/>
       <c r="K89" s="65"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="90" spans="1:11" s="11" customFormat="1">
       <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5306,7 +5416,7 @@
       <c r="J90" s="63"/>
       <c r="K90" s="65"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="91" spans="1:11" s="11" customFormat="1">
       <c r="A91" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5337,7 +5447,7 @@
       <c r="J91" s="63"/>
       <c r="K91" s="65"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="92" spans="1:11" s="11" customFormat="1">
       <c r="A92" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5368,7 +5478,7 @@
       <c r="J92" s="63"/>
       <c r="K92" s="65"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="93" spans="1:11" s="11" customFormat="1">
       <c r="A93" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5399,7 +5509,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="65"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="94" spans="1:11" s="11" customFormat="1">
       <c r="A94" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5430,7 +5540,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="65"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="95" spans="1:11" s="11" customFormat="1">
       <c r="A95" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5461,7 +5571,7 @@
       <c r="J95" s="63"/>
       <c r="K95" s="65"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="96" spans="1:11" s="11" customFormat="1">
       <c r="A96" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5492,7 +5602,7 @@
       <c r="J96" s="63"/>
       <c r="K96" s="65"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="97" spans="1:11" s="11" customFormat="1">
       <c r="A97" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5523,7 +5633,7 @@
       <c r="J97" s="63"/>
       <c r="K97" s="65"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="98" spans="1:11" s="11" customFormat="1">
       <c r="A98" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5554,7 +5664,7 @@
       <c r="J98" s="63"/>
       <c r="K98" s="65"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="99" spans="1:11" s="11" customFormat="1">
       <c r="A99" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5585,7 +5695,7 @@
       <c r="J99" s="63"/>
       <c r="K99" s="65"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="100" spans="1:11" s="11" customFormat="1">
       <c r="A100" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5616,7 +5726,7 @@
       <c r="J100" s="63"/>
       <c r="K100" s="65"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="101" spans="1:11" s="11" customFormat="1">
       <c r="A101" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5647,7 +5757,7 @@
       <c r="J101" s="63"/>
       <c r="K101" s="65"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="102" spans="1:11" s="11" customFormat="1">
       <c r="A102" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5678,7 +5788,7 @@
       <c r="J102" s="63"/>
       <c r="K102" s="65"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="103" spans="1:11" s="11" customFormat="1">
       <c r="A103" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5709,7 +5819,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="65"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="104" spans="1:11" s="11" customFormat="1">
       <c r="A104" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5740,7 +5850,7 @@
       <c r="J104" s="63"/>
       <c r="K104" s="65"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="105" spans="1:11" s="11" customFormat="1">
       <c r="A105" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5771,7 +5881,7 @@
       <c r="J105" s="63"/>
       <c r="K105" s="65"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="106" spans="1:11" s="11" customFormat="1">
       <c r="A106" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5802,7 +5912,7 @@
       <c r="J106" s="63"/>
       <c r="K106" s="65"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="107" spans="1:11" s="11" customFormat="1">
       <c r="A107" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5833,7 +5943,7 @@
       <c r="J107" s="63"/>
       <c r="K107" s="65"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="108" spans="1:11" s="11" customFormat="1">
       <c r="A108" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5865,7 +5975,7 @@
       <c r="K108" s="65"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="77H5Iqzv9dZcGmmBaf69JMJb19F7NL/TII5UwBSFOuUaqVrFbpC0VyStjTSM9GXqoLW1eBJcnDtnuP0mFWowpA==" saltValue="GBL6OckecvWR/Pgb/M/1sg==" spinCount="100000" sheet="1" scenarios="1" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <sheetProtection formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
@@ -5934,7 +6044,7 @@
     <col min="12" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.25" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
@@ -5956,7 +6066,7 @@
       <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="63.25">
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
@@ -5980,7 +6090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.75">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
@@ -6008,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="76" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
@@ -6035,7 +6145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32" thickBot="1">
+    <row r="6" spans="1:11" ht="31" thickBot="1">
       <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
@@ -6057,7 +6167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" thickBot="1">
+    <row r="7" spans="1:11" ht="46" thickBot="1">
       <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
@@ -6084,7 +6194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.5">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="33" t="s">
         <v>53</v>
       </c>
@@ -6103,7 +6213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.5">
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
@@ -6122,7 +6232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32" thickBot="1">
+    <row r="10" spans="1:11" ht="31" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
@@ -6152,7 +6262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" thickBot="1">
+    <row r="12" spans="1:11" ht="16" thickBot="1">
       <c r="I12" s="22" t="s">
         <v>37</v>
       </c>
@@ -6182,7 +6292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="33"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -6262,7 +6372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="76" thickBot="1">
       <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
@@ -6302,7 +6412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="61" thickBot="1">
       <c r="A20" s="34" t="s">
         <v>51</v>
       </c>
@@ -6475,7 +6585,6 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7681,7 +7790,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="1:9" ht="31.75">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="54" t="s">
         <v>111</v>
       </c>
@@ -7709,7 +7818,7 @@
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:9" ht="47.5">
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" s="54" t="s">
         <v>162</v>
       </c>
@@ -7736,7 +7845,6 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/fuentes/contenidos/grado09/guion02/SolicitudGrafica_LE_09_02_REC260.xlsx
+++ b/fuentes/contenidos/grado09/guion02/SolicitudGrafica_LE_09_02_REC260.xlsx
@@ -639,7 +639,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -800,15 +800,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,13 +848,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1306,23 +1294,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="82">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1374,7 +1347,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1406,7 +1386,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1727,30 +1707,8 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="9" borderId="36" xfId="51" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="9" borderId="36" xfId="51" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="9" borderId="36" xfId="51" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="36" xfId="51" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="36" xfId="51" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="36" xfId="51" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="82">
-    <cellStyle name="Entrada" xfId="51" builtinId="20"/>
+  <cellStyles count="89">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1776,21 +1734,25 @@
     <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1816,21 +1778,25 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2519,7 +2485,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2808,129 +2774,129 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="109" t="str">
+      <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="111" t="str">
+      <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6B</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="112" t="s">
+      <c r="E10" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="113" t="str">
+      <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_09_02_REC260_IMG01n.jpg</v>
       </c>
-      <c r="G10" s="113" t="str">
+      <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>320 x 480 px</v>
       </c>
-      <c r="H10" s="113" t="str">
+      <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>LE_09_02_REC260_IMG01a.jpg</v>
       </c>
-      <c r="I10" s="113" t="str">
+      <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J10" s="112" t="s">
+      <c r="J10" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="K10" s="114"/>
+      <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="11" customFormat="1" ht="14" customHeight="1">
-      <c r="A11" s="109" t="str">
+      <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="111" t="str">
+      <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6B</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="112" t="s">
+      <c r="E11" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="113" t="str">
+      <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_09_02_REC260_IMG02n.jpg</v>
       </c>
-      <c r="G11" s="113" t="str">
+      <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>320 x 480 px</v>
       </c>
-      <c r="H11" s="113" t="str">
+      <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>LE_09_02_REC260_IMG02a.jpg</v>
       </c>
-      <c r="I11" s="113" t="str">
+      <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J11" s="114" t="s">
+      <c r="J11" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="K11" s="114"/>
+      <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="15">
-      <c r="A12" s="109" t="str">
+    <row r="12" spans="1:16" s="11" customFormat="1">
+      <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="111" t="str">
+      <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6B</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="E12" s="112" t="s">
+      <c r="E12" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="113" t="str">
+      <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>LE_09_02_REC260_IMG03n.jpg</v>
       </c>
-      <c r="G12" s="113" t="str">
+      <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>320 x 480 px</v>
       </c>
-      <c r="H12" s="113" t="str">
+      <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>LE_09_02_REC260_IMG03a.jpg</v>
       </c>
-      <c r="I12" s="113" t="str">
+      <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J12" s="114" t="s">
+      <c r="J12" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="K12" s="114"/>
+      <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
